--- a/GameMasterGuide/Data/NewBeasts/Species.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/Species.xlsx
@@ -456,15 +456,15 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="128.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.71"/>
   </cols>
   <sheetData>

--- a/GameMasterGuide/Data/NewBeasts/Species.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/Species.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpeciesPicture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicHeight</t>
   </si>
   <si>
     <t xml:space="preserve">Acromantula</t>
@@ -48,9 +42,6 @@
 \ability{Talking Spiders:}{Acromantula have the ability to speak the spider tongue, to command their legions of arachnid followers. As they age and their minds continue to develop, they even gain the ability to understand and eventually speak in human tongues.}
 \ability{Keen Sight}{In addition to their web-enhanced senses, the 8 compound eyes of the acromantula allow them to see in incredible detail, even in dim light}
 \ability{Webspinners}{As members of the spider family, all Acromantula have an affinity for spinning webs, and using them to sense and then ensnare their prey.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greatOld</t>
   </si>
   <si>
     <t xml:space="preserve">Angels</t>
@@ -65,9 +56,6 @@
 \ability{Immortal Spirit}{As a celestial being, an angel is incredibly resilient and requires neither food, drink, air or sleep (though they may enjoy the experience).}</t>
   </si>
   <si>
-    <t xml:space="preserve">bigAcro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apparitions</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
 \ability{Incorporeal Form}{Almost all apparitions are merely imprints, shadows lying between the astral realm and the mortal plane, and as such are totally incapable of interacting with the physical realm. They can pass through solid objects at will, move with blatant disregard for the force of gravity, as well as being immune to all normal forms of attack. }
 \ability{Unknowable Purpose}{It is not understood what drives apparaitions of any kind to remain behind on the mortal plain. Some speculate that all apparitions are manifestations of lost souls, bound to the Earth through their need to find closure, or complete some important task. Others speculate that they are glitches in the fabric of reality, whose motives even they themselves do not understand.}
 \ability{Unkillable}{It is impossible to kill an apparition, though it is possible to banish them for a time. The only known way to permanently deal with an apparition is to plunge one into the Void, or help them find the closure they need, or otherwise convince them to relinquish their hold on the mortal realm. }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit</t>
   </si>
   <si>
     <t xml:space="preserve">Arachnid</t>
@@ -90,16 +75,11 @@
 \ability{Webspinners}{As members of the spider family, all arachnids have an affinity for spinning webs, and using them to sense and then ensnare their prey.} </t>
   </si>
   <si>
-    <t xml:space="preserve">host</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beast Demon</t>
   </si>
   <si>
-    <t xml:space="preserve">This is currently a single-entity species. The description is found in the BeastBlock. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">spiders</t>
+    <t xml:space="preserve">Demons prowled the earth for many millenia before the dawn of human civilization, and come in many thousands of shapes and forms. The \imp{Beast Demons} are those which share – at least to a cursory glance – a visual similarity with a non-magical creature, as well as a more bestial intelligence, and reliance on primal instinct above tactics and reasoned thought. 
+Typically using their more unassuming forms to get close to their prey, they unleash their demonic fury and hunger upon their prey, leaving no trace of their meal. </t>
   </si>
   <si>
     <t xml:space="preserve">Bowtruckle</t>
@@ -119,10 +99,10 @@
     <t xml:space="preserve">The Ceratothids are a family of loosely related magical quadrupeds. Defined by their huge bulk and relatively bovine-like appearance, most Ceratothid\apos{}s have a gentle temperament until angered, at which point their great mass and inherent magic makes them dangerous foes. </t>
   </si>
   <si>
-    <t xml:space="preserve">bowtruckle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is currently a single-entity species. The description is found in the BeastBlock. </t>
   </si>
   <si>
     <t xml:space="preserve">Cloakwraiths</t>
@@ -166,9 +146,6 @@
 \ability{Elfin Magics}{Elf magic is unlike any that is understood by humans, who often look down on it as inferior. Some scholars, however, have hypothesised that elfin magic is in fact far superior to wizard magic. It is only due to the elfin spirit and its dislike of organisation and study (and probably helped by wizard oppression) that they have not learned to harness it to its full potential. The most prominent quirk of elfin magic is their ability to ignore even the strongest magical wards and boundaries.}  
 \ability{Fond of Trickery}{All elves (except perhaps the brainwashed House Elves) are fond of trickery and fun. They play endless pranks on one another, delighting in causing small amounts of chaos. Even those who are dedicated to cleaning and tidying play the occassional trick: muggles notice this in the form of missing socks, or keys never quite being where they were left.}
 \ability{Holding Court}{Elven society is chaotic and unorganised. They rarely recognise a leader, though they sometimes assemble themselves into bands and groups for the purpose of safety. This all changes when one of the Elven Princes summons them to their Seelie Court. Every free-elf belongs to one of these courts, which is presided over by one of the more powerful Hulduf{\'o}lk. Court is only summoned in times of great emergency, such as conflict with another court, or when a great external threat is detected.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seelieCourt</t>
   </si>
   <si>
     <t xml:space="preserve">Fairy</t>
@@ -320,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -346,14 +323,6 @@
     <font>
       <b val="true"/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -402,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,10 +386,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -456,129 +421,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="128.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.55</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -586,23 +509,23 @@
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
+      <c r="A11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -610,334 +533,318 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
+      <c r="A14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
+      <c r="A19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>46</v>
+      <c r="A23" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>50</v>
+      <c r="A27" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>51</v>
+      <c r="A28" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>57</v>
+      <c r="A33" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>58</v>
+      <c r="A34" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>61</v>
+      <c r="A37" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>64</v>
+      <c r="A40" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="1"/>
+      <c r="A47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>77</v>
+      <c r="A52" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B54"/>
+  <autoFilter ref="A1:B1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
